--- a/data/trans_orig/P14B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0731F16-3341-4FEF-A097-812380628451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7529DDB8-D40A-45A8-A97C-F6EE27C4FC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0661156-1B9F-4FBD-9132-2F9F449FDE49}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95245AA5-8DBC-4FA9-9B2D-5A200335EE93}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
   <si>
     <t>Población cuya diabetes le limita en 2012 (Tasa respuesta: 8,01%)</t>
   </si>
@@ -76,58 +76,58 @@
     <t>42,26%</t>
   </si>
   <si>
-    <t>34,5%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>49,72%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>65,55%</t>
   </si>
   <si>
     <t>48,94%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>29,39%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>70,61%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,16 +196,16 @@
     <t>55,3%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>45,03%</t>
+    <t>39,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -214,19 +214,19 @@
     <t>66,63%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>44,7%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>15,7%</t>
@@ -235,70 +235,70 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>54,97%</t>
+    <t>60,47%</t>
   </si>
   <si>
     <t>33,37%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,112 +310,118 @@
     <t>27,98%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>33,5%</t>
@@ -424,31 +430,31 @@
     <t>12,63%</t>
   </si>
   <si>
-    <t>61,81%</t>
+    <t>62,16%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>66,5%</t>
   </si>
   <si>
-    <t>38,19%</t>
+    <t>37,84%</t>
   </si>
   <si>
     <t>87,37%</t>
@@ -457,64 +463,64 @@
     <t>70,83%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
@@ -523,211 +529,211 @@
     <t>14,73%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>87,29%</t>
   </si>
   <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>87,35%</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,06%</t>
+    <t>97,64%</t>
   </si>
   <si>
     <t>87,83%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>11,63%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>88,37%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406D7EA1-9377-485C-92EF-BA453ED3F940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A30DD8-969C-4550-A45E-9757AF892EA7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1890,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894219D4-F1DE-4843-85F0-675D5E949B55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2505534E-9FD5-45C3-8F0D-F08824E815A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2169,13 +2175,13 @@
         <v>26314</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2184,13 +2190,13 @@
         <v>19845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2199,13 +2205,13 @@
         <v>46159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2226,13 @@
         <v>97739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -2235,13 +2241,13 @@
         <v>65827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -2250,13 +2256,13 @@
         <v>163566</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2330,13 @@
         <v>6309</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2339,13 +2345,13 @@
         <v>4923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2354,13 +2360,13 @@
         <v>11232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2381,13 @@
         <v>17496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2390,13 +2396,13 @@
         <v>9771</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -2405,13 +2411,13 @@
         <v>27267</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2485,13 @@
         <v>74305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -2494,13 +2500,13 @@
         <v>78180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -2509,13 +2515,13 @@
         <v>152484</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2536,13 @@
         <v>222544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -2545,13 +2551,13 @@
         <v>218999</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -2560,13 +2566,13 @@
         <v>441544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EAC29D-4412-4267-B58E-A10772CAADF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A25FF0-BF2C-490E-96B6-BF2FC7F423D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,13 +2771,13 @@
         <v>15479</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>76</v>
@@ -2780,13 +2786,13 @@
         <v>44227</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -2795,13 +2801,13 @@
         <v>59706</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2822,13 @@
         <v>89580</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -2831,13 +2837,13 @@
         <v>128858</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>383</v>
@@ -2846,13 +2852,13 @@
         <v>218438</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2926,13 @@
         <v>21044</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2935,13 +2941,13 @@
         <v>11942</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2950,13 +2956,13 @@
         <v>32987</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2977,13 @@
         <v>144565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -2986,13 +2992,13 @@
         <v>83215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>345</v>
@@ -3001,13 +3007,13 @@
         <v>227779</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3081,13 @@
         <v>159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3090,13 +3096,13 @@
         <v>2380</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3105,13 +3111,13 @@
         <v>2538</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,10 +3132,10 @@
         <v>44687</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>56</v>
@@ -3141,13 +3147,13 @@
         <v>17180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -3156,13 +3162,13 @@
         <v>61868</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3236,13 @@
         <v>36682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -3245,13 +3251,13 @@
         <v>58549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3260,13 +3266,13 @@
         <v>95231</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3287,13 @@
         <v>278832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>441</v>
@@ -3296,13 +3302,13 @@
         <v>229253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>816</v>
@@ -3311,13 +3317,13 @@
         <v>508084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B02-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7529DDB8-D40A-45A8-A97C-F6EE27C4FC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4258D941-1A27-4C29-831B-C11EFFC93664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95245AA5-8DBC-4FA9-9B2D-5A200335EE93}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{247F0B80-3ACB-4751-B477-D85CA07E3186}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Población cuya diabetes le limita en 2012 (Tasa respuesta: 8,01%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>42,26%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>51,06%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>47,44%</t>
   </si>
   <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>57,74%</t>
   </si>
   <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>48,94%</t>
   </si>
   <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>29,39%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>70,61%</t>
   </si>
   <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,16 +196,16 @@
     <t>55,3%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>39,53%</t>
+    <t>41,3%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -214,19 +214,19 @@
     <t>66,63%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>44,7%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>15,7%</t>
@@ -235,292 +235,286 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>60,47%</t>
+    <t>58,7%</t>
   </si>
   <si>
     <t>33,37%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya diabetes le limita en 2015 (Tasa respuesta: 8,45%)</t>
+    <t>Población cuya diabetes le limita en 2016 (Tasa respuesta: 8,45%)</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>72,02%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>16,34%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>83,66%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
   </si>
   <si>
     <t>33,5%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>66,5%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
@@ -1145,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A30DD8-969C-4550-A45E-9757AF892EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38DA5B3-F029-463E-B3A5-082FE1973D7A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2505534E-9FD5-45C3-8F0D-F08824E815A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161ADAAB-FD01-444B-8FEB-86BD98F65D37}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2211,7 +2205,7 @@
         <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2220,13 @@
         <v>97739</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -2241,13 +2235,13 @@
         <v>65827</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -2256,13 +2250,13 @@
         <v>163566</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2324,13 @@
         <v>6309</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2345,13 +2339,13 @@
         <v>4923</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2360,13 +2354,13 @@
         <v>11232</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2375,13 @@
         <v>17496</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2396,13 +2390,13 @@
         <v>9771</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -2411,13 +2405,13 @@
         <v>27267</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2479,13 @@
         <v>74305</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -2500,13 +2494,13 @@
         <v>78180</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -2515,13 +2509,13 @@
         <v>152484</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2530,13 @@
         <v>222544</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -2551,13 +2545,13 @@
         <v>218999</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -2566,13 +2560,13 @@
         <v>441544</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A25FF0-BF2C-490E-96B6-BF2FC7F423D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3615C2C-17CF-4C1D-A9DE-C687FC91999F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,13 +2765,13 @@
         <v>15479</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>76</v>
@@ -2786,13 +2780,13 @@
         <v>44227</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -2801,13 +2795,13 @@
         <v>59706</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2816,13 @@
         <v>89580</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -2837,13 +2831,13 @@
         <v>128858</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>383</v>
@@ -2852,13 +2846,13 @@
         <v>218438</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2920,13 @@
         <v>21044</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2941,13 +2935,13 @@
         <v>11942</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2956,13 +2950,13 @@
         <v>32987</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2971,13 @@
         <v>144565</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -2992,13 +2986,13 @@
         <v>83215</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>345</v>
@@ -3007,13 +3001,13 @@
         <v>227779</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3075,13 @@
         <v>159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3096,13 +3090,13 @@
         <v>2380</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3111,13 +3105,13 @@
         <v>2538</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,10 +3126,10 @@
         <v>44687</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>56</v>
@@ -3147,13 +3141,13 @@
         <v>17180</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -3162,13 +3156,13 @@
         <v>61868</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3230,13 @@
         <v>36682</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -3251,13 +3245,13 @@
         <v>58549</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3266,13 +3260,13 @@
         <v>95231</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3281,13 @@
         <v>278832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>441</v>
@@ -3302,13 +3296,13 @@
         <v>229253</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>816</v>
@@ -3317,13 +3311,13 @@
         <v>508084</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
